--- a/outcome/simulate data/B_Tuberculosis.xlsx
+++ b/outcome/simulate data/B_Tuberculosis.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>72409.2787285474</v>
+        <v>89651.1801616119</v>
       </c>
       <c r="C2" t="n">
-        <v>64455.9716015749</v>
+        <v>70130.2633293211</v>
       </c>
       <c r="D2" t="n">
-        <v>60605.7221969029</v>
+        <v>61581.1909038469</v>
       </c>
       <c r="E2" t="n">
-        <v>81343.9548843969</v>
+        <v>114605.788183451</v>
       </c>
       <c r="F2" t="n">
-        <v>86511.6932185722</v>
+        <v>130516.055087654</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>70499.024260645</v>
+        <v>87509.4807080751</v>
       </c>
       <c r="C3" t="n">
-        <v>62703.5378602067</v>
+        <v>68193.4553912517</v>
       </c>
       <c r="D3" t="n">
-        <v>58932.1037806013</v>
+        <v>59759.3094877202</v>
       </c>
       <c r="E3" t="n">
-        <v>79263.6682284745</v>
+        <v>112296.83508279</v>
       </c>
       <c r="F3" t="n">
-        <v>84336.2463387745</v>
+        <v>128145.878515724</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>69740.4715309271</v>
+        <v>85303.4266988094</v>
       </c>
       <c r="C4" t="n">
-        <v>61977.826337552</v>
+        <v>66224.2884545113</v>
       </c>
       <c r="D4" t="n">
-        <v>58224.6656290313</v>
+        <v>57918.022113517</v>
       </c>
       <c r="E4" t="n">
-        <v>78475.3783210552</v>
+        <v>109879.241836738</v>
       </c>
       <c r="F4" t="n">
-        <v>83533.8995391492</v>
+        <v>125637.484517292</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>64380.3348008656</v>
+        <v>79213.5486969491</v>
       </c>
       <c r="C5" t="n">
-        <v>57167.563586712</v>
+        <v>61268.5387915759</v>
       </c>
       <c r="D5" t="n">
-        <v>53682.4607999031</v>
+        <v>53478.6204525008</v>
       </c>
       <c r="E5" t="n">
-        <v>72503.1337531929</v>
+        <v>102414.492346709</v>
       </c>
       <c r="F5" t="n">
-        <v>77210.0877513988</v>
+        <v>117332.613370929</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>65453.0562169139</v>
+        <v>78315.1535023401</v>
       </c>
       <c r="C6" t="n">
-        <v>58072.9372794828</v>
+        <v>60352.332182704</v>
       </c>
       <c r="D6" t="n">
-        <v>54509.2084121843</v>
+        <v>52576.9199521446</v>
       </c>
       <c r="E6" t="n">
-        <v>73771.0673651092</v>
+        <v>101624.295968015</v>
       </c>
       <c r="F6" t="n">
-        <v>78594.1071779879</v>
+        <v>116653.148827995</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>59936.323906475</v>
+        <v>73976.6951198556</v>
       </c>
       <c r="C7" t="n">
-        <v>53135.3745338458</v>
+        <v>56803.5391345001</v>
       </c>
       <c r="D7" t="n">
-        <v>49853.3599390502</v>
+        <v>49390.8549959638</v>
       </c>
       <c r="E7" t="n">
-        <v>67607.7463448318</v>
+        <v>96341.7333539392</v>
       </c>
       <c r="F7" t="n">
-        <v>72058.5919948794</v>
+        <v>110800.904768773</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>57143.7327897462</v>
+        <v>70925.0753908577</v>
       </c>
       <c r="C8" t="n">
-        <v>50619.0923747621</v>
+        <v>54266.7255388294</v>
       </c>
       <c r="D8" t="n">
-        <v>47472.3658807504</v>
+        <v>47096.2159605912</v>
       </c>
       <c r="E8" t="n">
-        <v>64509.3786544066</v>
+        <v>92697.0674801352</v>
       </c>
       <c r="F8" t="n">
-        <v>68785.4109767468</v>
+        <v>106810.413885653</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>81501.4393587097</v>
+        <v>97275.3509496263</v>
       </c>
       <c r="C9" t="n">
-        <v>72138.217724421</v>
+        <v>74166.9212343705</v>
       </c>
       <c r="D9" t="n">
-        <v>67625.2637009566</v>
+        <v>64247.264215773</v>
       </c>
       <c r="E9" t="n">
-        <v>92079.9657529207</v>
+        <v>127583.74953264</v>
       </c>
       <c r="F9" t="n">
-        <v>98224.8978268674</v>
+        <v>147282.441017152</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>72850.5831749535</v>
+        <v>84092.1472126453</v>
       </c>
       <c r="C10" t="n">
-        <v>64430.2443664072</v>
+        <v>63893.4052599005</v>
       </c>
       <c r="D10" t="n">
-        <v>60374.2245223307</v>
+        <v>55246.2422723978</v>
       </c>
       <c r="E10" t="n">
-        <v>82371.3695504452</v>
+        <v>110676.35531505</v>
       </c>
       <c r="F10" t="n">
-        <v>87905.1865414492</v>
+        <v>127999.460813397</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>81608.8293550719</v>
+        <v>100438.030917564</v>
       </c>
       <c r="C11" t="n">
-        <v>72119.4991092575</v>
+        <v>76052.0131242941</v>
       </c>
       <c r="D11" t="n">
-        <v>67551.325078121</v>
+        <v>65640.1685290172</v>
       </c>
       <c r="E11" t="n">
-        <v>92346.745484403</v>
+        <v>132643.406008342</v>
       </c>
       <c r="F11" t="n">
-        <v>98591.7155733533</v>
+        <v>153683.305217872</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>77524.6777397858</v>
+        <v>95526.1809448581</v>
       </c>
       <c r="C12" t="n">
-        <v>68456.7822056009</v>
+        <v>72088.3307886796</v>
       </c>
       <c r="D12" t="n">
-        <v>64094.117795907</v>
+        <v>62107.7486962589</v>
       </c>
       <c r="E12" t="n">
-        <v>87793.7213088276</v>
+        <v>126584.304922521</v>
       </c>
       <c r="F12" t="n">
-        <v>93769.5355725987</v>
+        <v>146926.131400081</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>76923.0779076573</v>
+        <v>94580.5210154716</v>
       </c>
       <c r="C13" t="n">
-        <v>67872.8730975596</v>
+        <v>71136.3762948905</v>
       </c>
       <c r="D13" t="n">
-        <v>63521.3274940071</v>
+        <v>61179.1782596837</v>
       </c>
       <c r="E13" t="n">
-        <v>87180.0418155611</v>
+        <v>125751.06326017</v>
       </c>
       <c r="F13" t="n">
-        <v>93152.3339990929</v>
+        <v>146217.638255743</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>72409.1860852937</v>
+        <v>89651.1801616119</v>
       </c>
       <c r="C14" t="n">
-        <v>63840.8096421415</v>
+        <v>67206.3600448241</v>
       </c>
       <c r="D14" t="n">
-        <v>59723.3904244708</v>
+        <v>57698.201486593</v>
       </c>
       <c r="E14" t="n">
-        <v>82127.564780659</v>
+        <v>119591.867481131</v>
       </c>
       <c r="F14" t="n">
-        <v>87789.561045858</v>
+        <v>139299.560424555</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>70498.9398905144</v>
+        <v>87509.4807080751</v>
       </c>
       <c r="C15" t="n">
-        <v>62108.9920038565</v>
+        <v>65386.7977493915</v>
       </c>
       <c r="D15" t="n">
-        <v>58079.699606808</v>
+        <v>56039.0268383175</v>
       </c>
       <c r="E15" t="n">
-        <v>80022.2377683695</v>
+        <v>117117.055390103</v>
       </c>
       <c r="F15" t="n">
-        <v>85573.7987512555</v>
+        <v>136653.144172032</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>69740.393462302</v>
+        <v>85303.4266988094</v>
       </c>
       <c r="C16" t="n">
-        <v>61393.9334929895</v>
+        <v>63532.7667412194</v>
       </c>
       <c r="D16" t="n">
-        <v>57387.8837670729</v>
+        <v>54356.9682488611</v>
       </c>
       <c r="E16" t="n">
-        <v>79221.5485074284</v>
+        <v>114534.199906615</v>
       </c>
       <c r="F16" t="n">
-        <v>84751.7308708868</v>
+        <v>133868.294001324</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>64380.2673898427</v>
+        <v>79213.5486969491</v>
       </c>
       <c r="C17" t="n">
-        <v>56632.4012085636</v>
+        <v>58808.7986922677</v>
       </c>
       <c r="D17" t="n">
-        <v>52915.8327882488</v>
+        <v>50230.1833020228</v>
       </c>
       <c r="E17" t="n">
-        <v>73188.1174157401</v>
+        <v>106698.086624731</v>
       </c>
       <c r="F17" t="n">
-        <v>78328.5192878624</v>
+        <v>124920.633067075</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>65452.9921116564</v>
+        <v>78315.1535023401</v>
       </c>
       <c r="C18" t="n">
-        <v>57532.7013651369</v>
+        <v>57958.2044161349</v>
       </c>
       <c r="D18" t="n">
-        <v>53735.6312203922</v>
+        <v>49420.8458391788</v>
       </c>
       <c r="E18" t="n">
-        <v>74463.6367616242</v>
+        <v>105822.175305135</v>
       </c>
       <c r="F18" t="n">
-        <v>79725.3903801316</v>
+        <v>124102.757934444</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>59936.2689979402</v>
+        <v>73976.6951198556</v>
       </c>
       <c r="C19" t="n">
-        <v>52644.1262956469</v>
+        <v>54576.3639661514</v>
       </c>
       <c r="D19" t="n">
-        <v>49150.217391037</v>
+        <v>46460.1067135695</v>
       </c>
       <c r="E19" t="n">
-        <v>68238.5024536061</v>
+        <v>100273.287246658</v>
       </c>
       <c r="F19" t="n">
-        <v>73089.3276180819</v>
+        <v>117790.332566277</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>57143.6838226455</v>
+        <v>70925.0753908577</v>
       </c>
       <c r="C20" t="n">
-        <v>50153.9646569194</v>
+        <v>52163.1573278833</v>
       </c>
       <c r="D20" t="n">
-        <v>46806.8815767466</v>
+        <v>44333.0032783059</v>
       </c>
       <c r="E20" t="n">
-        <v>65107.5268557452</v>
+        <v>96435.2346921669</v>
       </c>
       <c r="F20" t="n">
-        <v>69763.2589658506</v>
+        <v>113467.754206051</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>81501.3740325552</v>
+        <v>97275.3509496263</v>
       </c>
       <c r="C21" t="n">
-        <v>71479.3532463555</v>
+        <v>71323.8347369676</v>
       </c>
       <c r="D21" t="n">
-        <v>66682.9707314409</v>
+        <v>60519.1404416346</v>
       </c>
       <c r="E21" t="n">
-        <v>92928.5684259201</v>
+        <v>132669.449662505</v>
       </c>
       <c r="F21" t="n">
-        <v>99612.7481474448</v>
+        <v>156355.391588859</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>72850.5285563141</v>
+        <v>84092.1472126453</v>
       </c>
       <c r="C22" t="n">
-        <v>63845.2863105971</v>
+        <v>61470.7007048086</v>
       </c>
       <c r="D22" t="n">
-        <v>59537.9673312836</v>
+        <v>52074.8359165052</v>
       </c>
       <c r="E22" t="n">
-        <v>83125.9411245437</v>
+        <v>115038.370178852</v>
       </c>
       <c r="F22" t="n">
-        <v>89139.7497903111</v>
+        <v>135794.74804628</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>81608.7721241129</v>
+        <v>100438.030917564</v>
       </c>
       <c r="C23" t="n">
-        <v>71468.5866039081</v>
+        <v>73198.8752711237</v>
       </c>
       <c r="D23" t="n">
-        <v>66621.1514113273</v>
+        <v>61911.6720719404</v>
       </c>
       <c r="E23" t="n">
-        <v>93187.678728226</v>
+        <v>137813.566359223</v>
       </c>
       <c r="F23" t="n">
-        <v>99968.1264360888</v>
+        <v>162938.549662746</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>77524.6268864001</v>
+        <v>95526.1809448581</v>
       </c>
       <c r="C24" t="n">
-        <v>67842.5234588338</v>
+        <v>69411.9788571302</v>
       </c>
       <c r="D24" t="n">
-        <v>63216.6725023816</v>
+        <v>58616.1701160967</v>
       </c>
       <c r="E24" t="n">
-        <v>88588.5056666914</v>
+        <v>131465.078451259</v>
       </c>
       <c r="F24" t="n">
-        <v>95070.9288542375</v>
+        <v>155678.0531351</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>76923.0307097672</v>
+        <v>94580.5210154716</v>
       </c>
       <c r="C25" t="n">
-        <v>67267.3574725146</v>
+        <v>68522.2254611833</v>
       </c>
       <c r="D25" t="n">
-        <v>62656.7134199111</v>
+        <v>57774.4325869723</v>
       </c>
       <c r="E25" t="n">
-        <v>87964.6960413679</v>
+        <v>130548.517584642</v>
       </c>
       <c r="F25" t="n">
-        <v>94437.6481083578</v>
+        <v>154834.492612139</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>72409.1445281563</v>
+        <v>89651.1801616119</v>
       </c>
       <c r="C26" t="n">
-        <v>63274.5046479633</v>
+        <v>64761.2383293804</v>
       </c>
       <c r="D26" t="n">
-        <v>58915.0830483881</v>
+        <v>54518.8575079566</v>
       </c>
       <c r="E26" t="n">
-        <v>82862.5090069068</v>
+        <v>124107.171383773</v>
       </c>
       <c r="F26" t="n">
-        <v>88993.9204022368</v>
+        <v>147423.010527996</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>70498.9020444633</v>
+        <v>87509.4807080751</v>
       </c>
       <c r="C27" t="n">
-        <v>61561.147437954</v>
+        <v>63031.1069728503</v>
       </c>
       <c r="D27" t="n">
-        <v>57298.0472264296</v>
+        <v>52980.9693411023</v>
       </c>
       <c r="E27" t="n">
-        <v>80734.2844686914</v>
+        <v>121494.125386303</v>
       </c>
       <c r="F27" t="n">
-        <v>86741.0920625982</v>
+        <v>144540.753199395</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>69740.3584429258</v>
+        <v>85303.4266988094</v>
       </c>
       <c r="C28" t="n">
-        <v>60855.4076207905</v>
+        <v>61265.7874575586</v>
       </c>
       <c r="D28" t="n">
-        <v>56619.8258973339</v>
+        <v>51418.829145463</v>
       </c>
       <c r="E28" t="n">
-        <v>79922.5210363416</v>
+        <v>118772.236651655</v>
       </c>
       <c r="F28" t="n">
-        <v>85901.31669721</v>
+        <v>141517.703290629</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>64380.2371511638</v>
+        <v>79213.5486969491</v>
       </c>
       <c r="C29" t="n">
-        <v>56138.3737510073</v>
+        <v>56730.0887459647</v>
       </c>
       <c r="D29" t="n">
-        <v>52211.5120995767</v>
+        <v>47540.3644921881</v>
       </c>
       <c r="E29" t="n">
-        <v>73832.1162280857</v>
+        <v>110607.729264486</v>
       </c>
       <c r="F29" t="n">
-        <v>79385.0775234241</v>
+        <v>131988.603036373</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>65452.9633558488</v>
+        <v>78315.1535023401</v>
       </c>
       <c r="C30" t="n">
-        <v>57033.5502405712</v>
+        <v>55928.4406418146</v>
       </c>
       <c r="D30" t="n">
-        <v>53024.2796419585</v>
+        <v>46798.5260529638</v>
       </c>
       <c r="E30" t="n">
-        <v>75115.2680131522</v>
+        <v>109662.690354173</v>
       </c>
       <c r="F30" t="n">
-        <v>80794.8819105136</v>
+        <v>131056.761513254</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>59936.2443675216</v>
+        <v>73976.6951198556</v>
       </c>
       <c r="C31" t="n">
-        <v>52189.845893998</v>
+        <v>52682.326906306</v>
       </c>
       <c r="D31" t="n">
-        <v>48503.0598439382</v>
+        <v>44016.9791174531</v>
       </c>
       <c r="E31" t="n">
-        <v>68832.4199343227</v>
+        <v>103878.316358137</v>
       </c>
       <c r="F31" t="n">
-        <v>74064.4693436227</v>
+        <v>124328.19177012</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>57143.6618573855</v>
+        <v>70925.0753908577</v>
       </c>
       <c r="C32" t="n">
-        <v>49723.4765006146</v>
+        <v>50368.9499552323</v>
       </c>
       <c r="D32" t="n">
-        <v>46193.8513720742</v>
+        <v>42022.246939874</v>
       </c>
       <c r="E32" t="n">
-        <v>65671.1541565453</v>
+        <v>99870.3829178454</v>
       </c>
       <c r="F32" t="n">
-        <v>70689.0201505316</v>
+        <v>119707.219045101</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>81501.3447290839</v>
+        <v>97275.3509496263</v>
       </c>
       <c r="C33" t="n">
-        <v>70869.0538356525</v>
+        <v>68891.9814654598</v>
       </c>
       <c r="D33" t="n">
-        <v>65814.2121192429</v>
+        <v>57391.9893473449</v>
       </c>
       <c r="E33" t="n">
-        <v>93728.7692319566</v>
+        <v>137352.616387107</v>
       </c>
       <c r="F33" t="n">
-        <v>100927.580514283</v>
+        <v>164874.819813346</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>72850.5040559313</v>
+        <v>84092.1472126453</v>
       </c>
       <c r="C34" t="n">
-        <v>63303.008792087</v>
+        <v>59392.7685966538</v>
       </c>
       <c r="D34" t="n">
-        <v>58766.3284079924</v>
+        <v>49406.8790172943</v>
       </c>
       <c r="E34" t="n">
-        <v>83837.9729885236</v>
+        <v>119063.134955989</v>
       </c>
       <c r="F34" t="n">
-        <v>90310.1501315074</v>
+        <v>143127.62440141</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>81608.7464519165</v>
+        <v>100438.030917564</v>
       </c>
       <c r="C35" t="n">
-        <v>70864.6909430674</v>
+        <v>70745.3395160698</v>
       </c>
       <c r="D35" t="n">
-        <v>65762.1544557169</v>
+        <v>58766.2305070714</v>
       </c>
       <c r="E35" t="n">
-        <v>93981.7475928007</v>
+        <v>142593.111060073</v>
       </c>
       <c r="F35" t="n">
-        <v>101273.864163588</v>
+        <v>171659.777521099</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>77524.6040750026</v>
+        <v>95526.1809448581</v>
       </c>
       <c r="C36" t="n">
-        <v>67272.1941216146</v>
+        <v>67104.6510462947</v>
       </c>
       <c r="D36" t="n">
-        <v>62405.7236944528</v>
+        <v>55662.6089410498</v>
       </c>
       <c r="E36" t="n">
-        <v>89339.5007470831</v>
+        <v>135985.376626344</v>
       </c>
       <c r="F36" t="n">
-        <v>96306.2982237338</v>
+        <v>163938.619110973</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>76923.0095381215</v>
+        <v>94580.5210154716</v>
       </c>
       <c r="C37" t="n">
-        <v>66704.7212750137</v>
+        <v>66263.0329070278</v>
       </c>
       <c r="D37" t="n">
-        <v>61857.0003003551</v>
+        <v>54886.7937316747</v>
       </c>
       <c r="E37" t="n">
-        <v>88706.6055190665</v>
+        <v>134999.479545545</v>
       </c>
       <c r="F37" t="n">
-        <v>95658.524785722</v>
+        <v>162980.461188712</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
